--- a/results/evaluation/ausmacrodata_JAPHV_2016/ausmacrodata_JAPHV_2016_best_MASE.xlsx
+++ b/results/evaluation/ausmacrodata_JAPHV_2016/ausmacrodata_JAPHV_2016_best_MASE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>10yrNSWT-bond</t>
   </si>
@@ -377,18 +377,12 @@
     <t>dm_PCA</t>
   </si>
   <si>
-    <t>Part-GFS_granger_graph</t>
-  </si>
-  <si>
     <t>Hits_granger__graph</t>
   </si>
   <si>
     <t>Lasso1</t>
   </si>
   <si>
-    <t>Part-GFS_te</t>
-  </si>
-  <si>
     <t>Auto_Arima</t>
   </si>
   <si>
@@ -398,15 +392,15 @@
     <t>Hits_te_</t>
   </si>
   <si>
+    <t>FCBF</t>
+  </si>
+  <si>
     <t>dm_KernelPCA_fit_inverse_transform_True_kernel_rbf</t>
   </si>
   <si>
     <t>BayeRidge</t>
   </si>
   <si>
-    <t>FCBF</t>
-  </si>
-  <si>
     <t>predict</t>
   </si>
   <si>
@@ -428,48 +422,48 @@
     <t>1:e0d1cd3931</t>
   </si>
   <si>
+    <t>15:ad6fb5e3f1</t>
+  </si>
+  <si>
+    <t>9:af483c534b</t>
+  </si>
+  <si>
+    <t>0:25a4dea3c8</t>
+  </si>
+  <si>
+    <t>0:e7064f0b80</t>
+  </si>
+  <si>
+    <t>2:c8ccb31fea</t>
+  </si>
+  <si>
+    <t>1:ee8b55e5b8</t>
+  </si>
+  <si>
     <t>13:6060c77ffb</t>
   </si>
   <si>
-    <t>9:af483c534b</t>
-  </si>
-  <si>
-    <t>0:25a4dea3c8</t>
+    <t>14:9ce2ffe276</t>
+  </si>
+  <si>
+    <t>15:c71a42852d</t>
+  </si>
+  <si>
+    <t>1:1cc36c97fc</t>
+  </si>
+  <si>
+    <t>2:f4b74c19f8</t>
+  </si>
+  <si>
+    <t>3:ae2e7b5629</t>
   </si>
   <si>
     <t>3:a78467b6c0</t>
   </si>
   <si>
-    <t>0:e7064f0b80</t>
-  </si>
-  <si>
-    <t>2:c8ccb31fea</t>
-  </si>
-  <si>
-    <t>1:ee8b55e5b8</t>
-  </si>
-  <si>
-    <t>14:9ce2ffe276</t>
-  </si>
-  <si>
-    <t>15:c71a42852d</t>
-  </si>
-  <si>
-    <t>1:1cc36c97fc</t>
-  </si>
-  <si>
-    <t>2:f4b74c19f8</t>
-  </si>
-  <si>
-    <t>3:ae2e7b5629</t>
-  </si>
-  <si>
     <t>6:5080920051</t>
   </si>
   <si>
-    <t>4:cb9b545aa5</t>
-  </si>
-  <si>
     <t>12:b7650231b2</t>
   </si>
   <si>
@@ -489,9 +483,6 @@
   </si>
   <si>
     <t>2:98b8877e89</t>
-  </si>
-  <si>
-    <t>15:ad6fb5e3f1</t>
   </si>
 </sst>
 </file>
@@ -1209,16 +1200,16 @@
         <v>0.4567853922366856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4043929927315623</v>
+        <v>0.4110855509571154</v>
       </c>
       <c r="D2" t="n">
         <v>0.3812446873493551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3165075832986182</v>
+        <v>0.3165075832986183</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5619176474708268</v>
+        <v>0.5663784915611134</v>
       </c>
       <c r="G2" t="n">
         <v>0.6875678296420193</v>
@@ -1236,10 +1227,10 @@
         <v>1.759043761901306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3597578342032494</v>
+        <v>0.3754587167970935</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4493299072581644</v>
+        <v>0.4513919469398247</v>
       </c>
       <c r="N2" t="n">
         <v>0.7204976167035475</v>
@@ -1311,13 +1302,13 @@
         <v>0.7553154431857482</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6456069610774583</v>
+        <v>0.6639604425720694</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.287041678340842</v>
+        <v>1.338094537081033</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7601466673976562</v>
+        <v>0.7603402767380358</v>
       </c>
       <c r="AN2" t="n">
         <v>0.7433724451039486</v>
@@ -1326,7 +1317,7 @@
         <v>0.7906516163577636</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.856594568573918</v>
+        <v>0.8699644209683821</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.001238723567021</v>
@@ -1356,10 +1347,10 @@
         <v>0.6143112560400181</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.5691150844477009</v>
+        <v>0.5726623466118314</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.5179659800668894</v>
+        <v>0.5280216682562315</v>
       </c>
       <c r="BB2" t="n">
         <v>0.546476728089095</v>
@@ -1371,7 +1362,7 @@
         <v>0.5250044202391264</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.2302090398347164</v>
+        <v>0.2302090398347165</v>
       </c>
       <c r="BF2" t="n">
         <v>0.2923498764358889</v>
@@ -1416,7 +1407,7 @@
         <v>0.3775888978411301</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.5598675528685566</v>
+        <v>0.5678395848550072</v>
       </c>
       <c r="BU2" t="n">
         <v>0.5573744536807872</v>
@@ -1428,7 +1419,7 @@
         <v>0.4060357931433741</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.3988294259654374</v>
+        <v>0.4708720515132259</v>
       </c>
       <c r="BY2" t="n">
         <v>0.6547105579069298</v>
@@ -1455,13 +1446,13 @@
         <v>1.259463299899366</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.7609092705350938</v>
+        <v>0.7658553234568577</v>
       </c>
       <c r="CH2" t="n">
         <v>0.5588708566595305</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.6124376468139355</v>
+        <v>0.6143173061530309</v>
       </c>
       <c r="CJ2" t="n">
         <v>1.024138896015944</v>
@@ -1473,13 +1464,13 @@
         <v>0.426744789426397</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.7224995307819826</v>
+        <v>0.7323172526798803</v>
       </c>
       <c r="CN2" t="n">
         <v>0.6806361853814789</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.6141680348857692</v>
+        <v>0.6278638937369131</v>
       </c>
       <c r="CP2" t="n">
         <v>0.8886051450052396</v>
@@ -1488,13 +1479,13 @@
         <v>0.5662069183801404</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.8345706609281869</v>
+        <v>0.8358451237089866</v>
       </c>
       <c r="CS2" t="n">
         <v>0.5944992739249434</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.9325906311950741</v>
+        <v>0.9757547786381853</v>
       </c>
       <c r="CU2" t="n">
         <v>0.5435824820592795</v>
@@ -1527,7 +1518,7 @@
         <v>0.6393921828419737</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.9073840384551555</v>
+        <v>0.9073840384551556</v>
       </c>
       <c r="DF2" t="n">
         <v>0.6319574478948918</v>
@@ -1539,7 +1530,7 @@
         <v>0.5075391104236208</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.964765449598521</v>
+        <v>1.063081737753653</v>
       </c>
       <c r="DJ2" t="n">
         <v>0.5685314552397268</v>
@@ -1548,10 +1539,10 @@
         <v>0.9051243107308766</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.3802347807782951</v>
+        <v>0.3888986579950182</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.4764517620592424</v>
+        <v>0.4770134686688037</v>
       </c>
       <c r="DN2" t="n">
         <v>0.5090665623912274</v>
@@ -1568,1061 +1559,1061 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
       <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
         <v>124</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>124</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>125</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
         <v>124</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
         <v>126</v>
       </c>
-      <c r="L3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" t="s">
         <v>124</v>
-      </c>
-      <c r="O3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" t="s">
-        <v>126</v>
       </c>
       <c r="Y3" t="s">
         <v>119</v>
       </c>
       <c r="Z3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>128</v>
-      </c>
       <c r="AE3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AG3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH3" t="s">
         <v>119</v>
       </c>
       <c r="AI3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>120</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>121</v>
       </c>
       <c r="AR3" t="s">
         <v>119</v>
       </c>
       <c r="AS3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE3" t="s">
         <v>121</v>
       </c>
-      <c r="AT3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BF3" t="s">
         <v>120</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BG3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH3" t="s">
         <v>123</v>
       </c>
-      <c r="BB3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>125</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>129</v>
       </c>
       <c r="BK3" t="s">
         <v>119</v>
       </c>
       <c r="BL3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BM3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BN3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BO3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BQ3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BR3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BT3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BU3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BV3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BW3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BX3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BY3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CA3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CB3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CD3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CE3" t="s">
         <v>119</v>
       </c>
       <c r="CF3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CG3" t="s">
         <v>120</v>
       </c>
       <c r="CH3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI3" t="s">
         <v>120</v>
       </c>
       <c r="CJ3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CK3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CL3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CM3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP3" t="s">
         <v>120</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>121</v>
       </c>
       <c r="CQ3" t="s">
         <v>119</v>
       </c>
       <c r="CR3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CS3" t="s">
         <v>120</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>121</v>
       </c>
       <c r="CT3" t="s">
         <v>120</v>
       </c>
       <c r="CU3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CV3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="CW3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DE3" t="s">
         <v>124</v>
       </c>
-      <c r="CX3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>125</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DE3" t="s">
+      <c r="DF3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DH3" t="s">
         <v>120</v>
       </c>
-      <c r="DF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>121</v>
-      </c>
       <c r="DI3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="DJ3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DK3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DL3" t="s">
         <v>123</v>
       </c>
       <c r="DM3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="DN3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:118">
       <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
         <v>130</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
         <v>131</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" t="s">
+        <v>122</v>
+      </c>
+      <c r="W4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" t="s">
+      <c r="Z4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" t="s">
         <v>132</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AE4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>131</v>
       </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="BK4" t="s">
         <v>131</v>
       </c>
-      <c r="M4" t="s">
+      <c r="BL4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM4" t="s">
         <v>131</v>
       </c>
-      <c r="N4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="BN4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>131</v>
       </c>
-      <c r="P4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="BR4" t="s">
         <v>131</v>
       </c>
-      <c r="R4" t="s">
-        <v>124</v>
-      </c>
-      <c r="S4" t="s">
-        <v>124</v>
-      </c>
-      <c r="T4" t="s">
-        <v>131</v>
-      </c>
-      <c r="U4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V4" t="s">
-        <v>124</v>
-      </c>
-      <c r="W4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>133</v>
-      </c>
       <c r="BS4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BT4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="BU4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BV4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BW4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BX4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="BY4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CA4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CB4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CD4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CE4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CF4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CG4" t="s">
         <v>131</v>
       </c>
       <c r="CH4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN4" t="s">
         <v>131</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CO4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DE4" t="s">
         <v>131</v>
       </c>
-      <c r="CK4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>133</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>124</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>124</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>131</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>133</v>
-      </c>
       <c r="DF4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DG4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DH4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DI4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="DJ4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DK4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DL4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DM4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DN4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:118">
       <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
         <v>139</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
         <v>140</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>141</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" t="s">
+        <v>138</v>
+      </c>
+      <c r="V5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>153</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>145</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>145</v>
+      </c>
+      <c r="CK5" t="s">
         <v>141</v>
       </c>
-      <c r="I5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="CL5" t="s">
+        <v>145</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>154</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>155</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>140</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>136</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU5" t="s">
         <v>137</v>
       </c>
-      <c r="M5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O5" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>142</v>
-      </c>
-      <c r="R5" t="s">
-        <v>141</v>
-      </c>
-      <c r="S5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="CV5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>152</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>152</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>152</v>
+      </c>
+      <c r="DM5" t="s">
         <v>145</v>
       </c>
-      <c r="U5" t="s">
-        <v>141</v>
-      </c>
-      <c r="V5" t="s">
-        <v>141</v>
-      </c>
-      <c r="W5" t="s">
-        <v>141</v>
-      </c>
-      <c r="X5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>140</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>156</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>157</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>138</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>139</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>154</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>154</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>143</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>154</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>158</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>140</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>140</v>
-      </c>
       <c r="DN5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
